--- a/Metricas-Codigo/LETI-122631-Classes.xlsx
+++ b/Metricas-Codigo/LETI-122631-Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BeeStation\ISCTE\Ano 3\Semestre 1\ES - Engenharia de Software\Lab Sessions - Aulas TP\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafas\IdeaProjects\todoapp\Metricas-Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7258EED6-3959-4231-AAA7-C23815FE881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3681B-754F-405E-B0D0-D23D44F05F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43E32383-B11E-495C-A747-90A55F02EEBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{43E32383-B11E-495C-A747-90A55F02EEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="LETI-122631-Classes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>Class Name</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>iscteiul.ista.service.CurrencyExchangeService.ExchangeRateResponse</t>
+  </si>
+  <si>
+    <t>iscteiul.ista.exportpdf.ExportPDF</t>
+  </si>
+  <si>
+    <t>iscteiul.ista.exportpdf.ExportPDFRepository</t>
+  </si>
+  <si>
+    <t>iscteiul.ista.exportpdf.ExportPDFService</t>
+  </si>
+  <si>
+    <t>iscteiul.ista.exportpdf.ui.ExportPDFListView</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -686,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1062,19 +1077,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD45E95-E0F9-462A-A474-3A6B3EC685AE}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" customWidth="1"/>
-    <col min="31" max="31" width="58.85546875" customWidth="1"/>
+    <col min="1" max="1" width="66.26953125" customWidth="1"/>
+    <col min="31" max="31" width="58.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1445,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="204" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1724,7 +1739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="270" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="232" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -1819,7 +1834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2555,187 +2570,555 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>22.2727</v>
+      </c>
+      <c r="H17" s="5">
+        <v>11941.8866</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="J17" s="5">
+        <v>95</v>
+      </c>
+      <c r="K17" s="5">
+        <v>50</v>
+      </c>
+      <c r="L17" s="5">
+        <v>536.16629999999998</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+      <c r="N17" s="5">
+        <v>46</v>
+      </c>
+      <c r="O17" s="5">
+        <v>44.254800000000003</v>
+      </c>
+      <c r="P17" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5">
+        <v>5</v>
+      </c>
+      <c r="S17" s="5">
+        <v>6</v>
+      </c>
+      <c r="T17" s="5">
+        <v>5</v>
+      </c>
+      <c r="U17" s="5">
+        <v>28</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>10</v>
+      </c>
+      <c r="X17" s="5">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0.1333</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42636.7572</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>145</v>
+      </c>
+      <c r="K19" s="5">
+        <v>84</v>
+      </c>
+      <c r="L19" s="5">
+        <v>926.88599999999997</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>51</v>
+      </c>
+      <c r="O19" s="5">
+        <v>41.717100000000002</v>
+      </c>
+      <c r="P19" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>34</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>4</v>
+      </c>
+      <c r="T19" s="5">
+        <v>3</v>
+      </c>
+      <c r="U19" s="5">
+        <v>21</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>5</v>
+      </c>
+      <c r="X19" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
+        <v>37.208300000000001</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45150.975100000003</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="J20" s="5">
+        <v>180</v>
+      </c>
+      <c r="K20" s="5">
+        <v>107</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1213.4640999999999</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>64</v>
+      </c>
+      <c r="O20" s="5">
+        <v>38.7271</v>
+      </c>
+      <c r="P20" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>40</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+      <c r="T20" s="5">
+        <v>13</v>
+      </c>
+      <c r="U20" s="5">
+        <v>137</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2</v>
+      </c>
+      <c r="X20" s="5">
+        <v>132</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>38</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
         <v>11.666700000000001</v>
       </c>
-      <c r="H17">
+      <c r="H21" s="5">
         <v>1899.896</v>
       </c>
-      <c r="I17">
+      <c r="I21" s="5">
         <v>5.11E-2</v>
       </c>
-      <c r="J17">
+      <c r="J21" s="5">
         <v>36</v>
       </c>
-      <c r="K17">
+      <c r="K21" s="5">
         <v>23</v>
       </c>
-      <c r="L17">
+      <c r="L21" s="5">
         <v>162.84819999999999</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
         <v>9</v>
       </c>
-      <c r="O17">
+      <c r="O21" s="5">
         <v>63.565399999999997</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <v>7</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1</v>
+      </c>
+      <c r="U21" s="5">
         <v>15</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5">
         <v>14</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
         <v>6</v>
       </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="K22" s="5">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L22" s="5">
         <v>6.3399000000000001</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
         <v>14</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
         <v>13</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>1</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
         <v>0</v>
       </c>
     </row>
